--- a/file_description.xlsx
+++ b/file_description.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A0E35-2D41-7342-BB99-91DD95D831A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E92482-01DC-1240-82C3-F462C1C0DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="27280" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="File storage" sheetId="2" r:id="rId1"/>
-    <sheet name="Docu spec" sheetId="3" r:id="rId2"/>
+    <sheet name="Code_spec" sheetId="4" r:id="rId1"/>
+    <sheet name="matlab_script" sheetId="6" r:id="rId2"/>
+    <sheet name="Config_spec" sheetId="2" r:id="rId3"/>
+    <sheet name="Data_spec" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="258">
   <si>
     <t>Name</t>
   </si>
@@ -58,9 +60,6 @@
     <t>report</t>
   </si>
   <si>
-    <t>up-to-date？</t>
-  </si>
-  <si>
     <t>inter_c2mean_mtl</t>
   </si>
   <si>
@@ -94,9 +93,6 @@
     <t>re_varied_18_mtl</t>
   </si>
   <si>
-    <t>0 need plolty</t>
-  </si>
-  <si>
     <t>inter_c2meansd_mtl</t>
   </si>
   <si>
@@ -115,24 +111,15 @@
     <t>re_inter_c2meansd_mtl</t>
   </si>
   <si>
-    <t>０</t>
-  </si>
-  <si>
     <t>roi_26_mtl</t>
   </si>
   <si>
     <t>roi_26_mtl/roi_26_mtl_subtype_stage_mean</t>
   </si>
   <si>
-    <t>roi_26_mtl_full/bl_ss</t>
-  </si>
-  <si>
     <t>re_varied_26_mtl</t>
   </si>
   <si>
-    <t>0 need plotly</t>
-  </si>
-  <si>
     <t>roi_18</t>
   </si>
   <si>
@@ -238,9 +225,6 @@
     <t>re_c2meansd</t>
   </si>
   <si>
-    <t>no mtl</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -253,24 +237,12 @@
     <t>standardization_results</t>
   </si>
   <si>
-    <t>desktop/data</t>
-  </si>
-  <si>
-    <t>old bootstrap?</t>
-  </si>
-  <si>
     <t>standardization_results_2gmm_mtl</t>
   </si>
   <si>
-    <t>bootstrap on new data. but only 2gmm and only on MTL, excluding hippocampus</t>
-  </si>
-  <si>
     <t>baseline_FTP_6mm</t>
   </si>
   <si>
-    <t>original ftp data with DK parcellations</t>
-  </si>
-  <si>
     <t>long_mean_suvr</t>
   </si>
   <si>
@@ -295,77 +267,554 @@
     <t>mean suvr values with lobar roi including EOnonAD and longitudinal in wide format. mtl excluding hippocampus</t>
   </si>
   <si>
-    <t>full_combined</t>
-  </si>
-  <si>
     <t>clincal demo z and suvr values for longitudinal. excluding EOnonAD</t>
   </si>
   <si>
-    <t>full_gmm2z_bl_exclude</t>
-  </si>
-  <si>
     <t>bootstrap based 2gmm z score baseline only</t>
   </si>
   <si>
-    <t>full_gmm2z_exclude</t>
-  </si>
-  <si>
     <t>bootstrap based 2gmm z score longitudinal</t>
   </si>
   <si>
-    <t>full_gmm2z_mtl</t>
-  </si>
-  <si>
     <t>bootstrap based 2gmm z score longitudinal. MTL excluding hippocampus</t>
   </si>
   <si>
-    <t>gmm2z_exclude</t>
-  </si>
-  <si>
     <t>bootstrap based 2gmm z score long format</t>
   </si>
   <si>
-    <t>bootstrapstat_exclude</t>
-  </si>
-  <si>
     <t>bootstrap summary statistics (sample mean and sd) with the new data excluding ineligible</t>
   </si>
   <si>
-    <t>2gmm_thre_exclude</t>
-  </si>
-  <si>
     <t>2gmm fitted on z score for thresholds</t>
   </si>
   <si>
-    <t>2gmm_thre_mtl</t>
-  </si>
-  <si>
     <t>2gmm fitted on z score for thresholds. MTL excluding hippocampus.</t>
   </si>
   <si>
-    <t>treatment_exclude</t>
-  </si>
-  <si>
     <t>longitudinal treatment information. used to exclude scans obtained after the subjects have started receiving anti-amyloid treatment</t>
   </si>
   <si>
-    <t>long_ftp</t>
-  </si>
-  <si>
     <t>ftp data in long format with lobe and visit assign</t>
   </si>
   <si>
-    <t>long_ftp_mtl</t>
-  </si>
-  <si>
     <t>ftp data in long format with lobe and visit assign, but MTL excluding hippocampus</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>notebooks</t>
+  </si>
+  <si>
+    <t>re_inter_c2mean_20.ipynb</t>
+  </si>
+  <si>
+    <t>main analysis notebook with sustain model training/loading cross validation and most of the tables+figures</t>
+  </si>
+  <si>
+    <t>save_colormap.py</t>
+  </si>
+  <si>
+    <t>SuStaInWorkshop.ipynb</t>
+  </si>
+  <si>
+    <t>example file from the original SuStaIn repository on running and evaluating SuStaIn model</t>
+  </si>
+  <si>
+    <t>notebooks/additional_sens_analysis</t>
+  </si>
+  <si>
+    <t>4subtype.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed_excluded_supp.ipynb </t>
+  </si>
+  <si>
+    <t>added during co-author review</t>
+  </si>
+  <si>
+    <t>compare characteristics of participants whose subtype assignment at follow-up is different from at baseline versus those whose subtype assignment remain unchanged; compare characteristics of participants who were excluded from analysis due to having poor model fit (at different subtype probability exclusion threshold) versus those who were included</t>
+  </si>
+  <si>
+    <t>cn_char.ipynb</t>
+  </si>
+  <si>
+    <t>get summary statistics for the cognitively normal control group</t>
+  </si>
+  <si>
+    <t>subtype_solution_fpath.ipynb</t>
+  </si>
+  <si>
+    <t>to update the data file used in matlab-spm for baseline comparison and LME, collect filepath on VM and the necessary covariates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added when updating covarates, </t>
+  </si>
+  <si>
+    <t>threshold_pt8.ipynb</t>
+  </si>
+  <si>
+    <t>sensitivity analysis - baseline analysis where participants with &lt; 0.8 probability of being assigned to any of the three subtypes are excluded. using the inter-c2mean configuration</t>
+  </si>
+  <si>
+    <t>sensitivity analysis - baseline analysis where no participants were excluded based on probability of being assigned to any of the three subtypes. using the inter-c2mean configuration</t>
+  </si>
+  <si>
+    <t>threshold0.ipynb</t>
+  </si>
+  <si>
+    <t>notebooks/additional_sens_analysis/ucsf_rep</t>
+  </si>
+  <si>
+    <t>*.ipynb/rmd</t>
+  </si>
+  <si>
+    <t>table 1 and longitudinal cdr modeling for the ucsf cohort</t>
+  </si>
+  <si>
+    <t>not included due to sample size</t>
+  </si>
+  <si>
+    <t>crossover.ipynb</t>
+  </si>
+  <si>
+    <t>visualize subtype probability by subtype and stage with line+scatterplot</t>
+  </si>
+  <si>
+    <t>notebooks/process</t>
+  </si>
+  <si>
+    <t>bootstrap trial.ipynb</t>
+  </si>
+  <si>
+    <t>running bootstrap for the GMM standardization process</t>
+  </si>
+  <si>
+    <t>the py version is in scire</t>
+  </si>
+  <si>
+    <t>cn_standardize.ipynb</t>
+  </si>
+  <si>
+    <t>standarize based on the distributio of the CN group</t>
+  </si>
+  <si>
+    <t>compare+threshold.ipynb</t>
+  </si>
+  <si>
+    <t>gmm_standardize.ipynb</t>
+  </si>
+  <si>
+    <t>standarize based on the distributio of the GMM fitted on both CN + EOAD population (+EOnonAD for supplementary)</t>
+  </si>
+  <si>
+    <t>GMM explore.ipynb</t>
+  </si>
+  <si>
+    <t>experiment with different configurations of the sklearn GMM to provide robust and optimized fit</t>
+  </si>
+  <si>
+    <t>compare thresholds based on different method of standardization+threshold selection</t>
+  </si>
+  <si>
+    <t>laterality.ipynb</t>
+  </si>
+  <si>
+    <t>examine laterality (hemispheric asymmetry index) across subtypes and stages</t>
+  </si>
+  <si>
+    <t>not included in paper</t>
+  </si>
+  <si>
+    <t>notebook/process</t>
+  </si>
+  <si>
+    <t>suvr_calculate.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clean up data by grouping together Desikan-Killany (Freesurfer) atlas to calculate lobar ROI based SUVR values </t>
+  </si>
+  <si>
+    <t>raceeth.ipynb</t>
+  </si>
+  <si>
+    <t>race-eth encoding is retrieved from EDC</t>
+  </si>
+  <si>
+    <t>calculate race-ethnicity distribution for the EOAD and CN grup</t>
+  </si>
+  <si>
+    <t>noteebook/process</t>
+  </si>
+  <si>
+    <t>noteebook/pySuStaIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the pySuStaIn package </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloned in late 2023 </t>
+  </si>
+  <si>
+    <t>(bcb7b9072123b3d1cd3779d799fdaf2776abaeba - commit number)</t>
+  </si>
+  <si>
+    <t>used with the python colormap library to visualize and save colormap as txt file and imported into brainnet viewer (matlab). usecase: python save_colormap.py acton. In brainnetviewer copypaste the txt content under custom colormap option in the config menu</t>
+  </si>
+  <si>
+    <t>colormap library</t>
+  </si>
+  <si>
+    <t>python environment setup file</t>
+  </si>
+  <si>
+    <t>sustain_eoad.yml + setup.py + requirements.txt</t>
+  </si>
+  <si>
+    <t>data_merger</t>
+  </si>
+  <si>
+    <t>R_code</t>
+  </si>
+  <si>
+    <t>sustain_cogdata.Rmd</t>
+  </si>
+  <si>
+    <t>analysis for cognitive data (baseline modeling with subtypexstage interaction and longitudinal mixed-effect modeling; visualization; missingness check; correlation check)</t>
+  </si>
+  <si>
+    <t>table2.Rmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output table2 in the paper, slope and slope comparison from longitudinal mixed-effect modeling of cognitive scores; output json with total participant counts for each score's longitudinal data) </t>
+  </si>
+  <si>
+    <t>using the performance and bestNormalize library to perform modeling assumption check and find transformation if approprirate</t>
+  </si>
+  <si>
+    <t>score_assumption.Rmd</t>
+  </si>
+  <si>
+    <t>results stored under folders named with the variable names of that scores under the "data" folder</t>
+  </si>
+  <si>
+    <t>results stored under data/diagnostics</t>
+  </si>
+  <si>
+    <t>diagnostics/</t>
+  </si>
+  <si>
+    <t>cognitive data modeling assumption check output</t>
+  </si>
+  <si>
+    <t>feb_data/</t>
+  </si>
+  <si>
+    <t>data files downloaded from LONI 20250206</t>
+  </si>
+  <si>
+    <t>data freeze date specified in paper</t>
+  </si>
+  <si>
+    <t>neuroimaging data from internal quarterly report; additional codebook data pulled from EDC; eligilibility list; kostas data</t>
+  </si>
+  <si>
+    <t>LONI data archived 202409</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output file from cogdata.R with longitudinal and baseline modeling results (simple slope analysis; slope comparison using emtrends; facet plot; spagetthi/line+scatter plot; model summar;anova result;comparison with random intercept only) </t>
+  </si>
+  <si>
+    <t>longitudinal modeling with the new colorscheme selective scores (significant interaction)</t>
+  </si>
+  <si>
+    <t>tmap showing baseline subtype comparison for solutions with 2, 4~6 subtypes</t>
+  </si>
+  <si>
+    <t>tmap showing baseline subtype comparison for solutions with 2~6 subtypes</t>
+  </si>
+  <si>
+    <t>used in supplementary, with no CDRSB adjustment</t>
+  </si>
+  <si>
+    <t>tmap_soluions/</t>
+  </si>
+  <si>
+    <t>tmap_soluions_nocdr_0814/</t>
+  </si>
+  <si>
+    <t>LEADS_rawData_20240922/</t>
+  </si>
+  <si>
+    <t>Results_*/</t>
+  </si>
+  <si>
+    <t>results08_*/</t>
+  </si>
+  <si>
+    <t>folder name corresponds to variable name, see cognitive measure csv</t>
+  </si>
+  <si>
+    <t>LEADS_data_used/</t>
+  </si>
+  <si>
+    <t>SCORE_NAME.csv</t>
+  </si>
+  <si>
+    <t>original baseline flortaucipir SUVR data based on Freesurfer parcellations, include patient baseline flortaucipir PET date and diganosis</t>
+  </si>
+  <si>
+    <t>cog_data_1vr_t1.csv</t>
+  </si>
+  <si>
+    <t>baseline cognitive score 1vr table one result (all scores)</t>
+  </si>
+  <si>
+    <t>cog_data_1vr_edited.csv</t>
+  </si>
+  <si>
+    <t>baseline cognitive score 1vr table edited (selective scores + domains)</t>
+  </si>
+  <si>
+    <t>cognitive measures.csv</t>
+  </si>
+  <si>
+    <t>list of congitive scores used in analysis, with variable name source file range explanation module and domain info</t>
+  </si>
+  <si>
+    <t>used to clean up cognitive data</t>
+  </si>
+  <si>
+    <t>combined_exclude_long_forR_all.csv</t>
+  </si>
+  <si>
+    <t>longituidinal cognitive data used to run LME modeling in R (excluding those with only baseline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not used </t>
+  </si>
+  <si>
+    <t>combined_exclude_long_forR_longi.csv</t>
+  </si>
+  <si>
+    <t>same as above but including those with only baseline</t>
+  </si>
+  <si>
+    <t>baseline data for all EOAD participants used in table one and baseline sensitivity analysis</t>
+  </si>
+  <si>
+    <t>doesn't have filepath</t>
+  </si>
+  <si>
+    <t>tableone_dat.csv</t>
+  </si>
+  <si>
+    <t>sustain_subtype_baseline_3x.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline participant subtype and stage assignment </t>
+  </si>
+  <si>
+    <t>sustain_dat_baseline_filtered.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline cognitive data for all participants (CN, EOAD, EOnonAD) with range filteres applied </t>
+  </si>
+  <si>
+    <t>used in R baseline modeling for cognitive score</t>
+  </si>
+  <si>
+    <t>old bootstrap results</t>
+  </si>
+  <si>
+    <t>new bootstrap excluding ineligible participants. but only 2gmm and only on MTL, excluding hippocampus</t>
+  </si>
+  <si>
+    <t>not used due to inclusion of ineligible participants</t>
+  </si>
+  <si>
+    <t>full_gmm2z_bl_exclude.csv</t>
+  </si>
+  <si>
+    <t>full_gmm2z_exclude.csv</t>
+  </si>
+  <si>
+    <t>full_gmm2z_mtl.csv</t>
+  </si>
+  <si>
+    <t>gmm2z_exclude.csv</t>
+  </si>
+  <si>
+    <t>bootstrapstat_exclude.csv</t>
+  </si>
+  <si>
+    <t>2gmm_thre_exclude.csv</t>
+  </si>
+  <si>
+    <t>2gmm_thre_mtl.csv</t>
+  </si>
+  <si>
+    <t>treatment_exclude.csv</t>
+  </si>
+  <si>
+    <t>long_ftp.csv</t>
+  </si>
+  <si>
+    <t>long_ftp_mtl.csv</t>
+  </si>
+  <si>
+    <t>adjusted for CDR so not used</t>
+  </si>
+  <si>
+    <t>used in supplementary for alternative config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selective information sent to external </t>
+  </si>
+  <si>
+    <t>sense_pt8_threshold.csv</t>
+  </si>
+  <si>
+    <t>sensitvity analysis - table one for the 0.8 subtype probability threshold</t>
+  </si>
+  <si>
+    <t>sense_4subtype.csv</t>
+  </si>
+  <si>
+    <t>sensitvity analysis - table one for the four subtype solution</t>
+  </si>
+  <si>
+    <t>sense_0threshold.csv</t>
+  </si>
+  <si>
+    <t>sensitivity analysis - baseline analysis for four subtype solution using the inter-c2mean configuration (and 0.5 subypt probability threshold)</t>
+  </si>
+  <si>
+    <t>sensitvity analysis - table one for the no exclusion based on subtyp probability threhsold</t>
+  </si>
+  <si>
+    <t>roi_def.csv</t>
+  </si>
+  <si>
+    <t>lobar roi definition used to plot Figure 1's ROI overview using the BrainPainter library</t>
+  </si>
+  <si>
+    <t>https://github.com/razvanmarinescu/brain-coloring using the provided colab option</t>
+  </si>
+  <si>
+    <t>pet_scan_info.csv</t>
+  </si>
+  <si>
+    <t>all florbetaben and closest florbetapir scan date (and file path) + the date difference between</t>
+  </si>
+  <si>
+    <t>Marlene_LEADS-FTP-infcblgm_roi-extractions_2025-02-11.csv</t>
+  </si>
+  <si>
+    <t>baseline LEADS data provided by Ganna and Piyush</t>
+  </si>
+  <si>
+    <t>this is where covariates and neuroimaging measurements from the table one are based off</t>
+  </si>
+  <si>
+    <t>full_combined.csv</t>
+  </si>
+  <si>
+    <t>full_combined_mtl.csv</t>
+  </si>
+  <si>
+    <t>full combined data but with MTL excluding hippocampus</t>
+  </si>
+  <si>
+    <t>ss_assignment/</t>
+  </si>
+  <si>
+    <t>same files on vm/network drive</t>
+  </si>
+  <si>
+    <t>eoad_cn_check.ipynb</t>
+  </si>
+  <si>
+    <t>file to compare demographis of EOAD and CN group</t>
+  </si>
+  <si>
+    <t>missingness.ipynb</t>
+  </si>
+  <si>
+    <t>longitudinal missingness (cog data) and clinical diagnosis by sites</t>
+  </si>
+  <si>
+    <t>tableone_check.iipynb</t>
+  </si>
+  <si>
+    <t>longitudinal_processing.ipynb</t>
+  </si>
+  <si>
+    <t>lme_merger.ipynb</t>
+  </si>
+  <si>
+    <t>add_cog.ipynb</t>
+  </si>
+  <si>
+    <t>used to check categorical variable value enconding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used to merge longitudinal amyloid and tau PET file paths, check eligibility </t>
+  </si>
+  <si>
+    <t>where full_combined additional versions are saved for longituidinal modeling</t>
+  </si>
+  <si>
+    <t>where original long and full_combined data are saved</t>
+  </si>
+  <si>
+    <t>calculate lobar ROI SUVRs and z-scores for longitudinal data, merged longitudianl variables</t>
+  </si>
+  <si>
+    <t>where longitudianl cog scores are saved as individual files, including merged scores like fluency or forgetting scores</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filename </t>
+  </si>
+  <si>
+    <t>inter_26_mtl_full/bl_ss</t>
+  </si>
+  <si>
+    <t>see config_spec. final_inter_c2mean_2_bl_ss_with_fpath_covariates is additionally created to incoporate file path because it's the config reported In the main text</t>
+  </si>
+  <si>
+    <t>gmm_check.ipynb</t>
+  </si>
+  <si>
+    <t>check the double gmm thing I did</t>
+  </si>
+  <si>
+    <t>old_config/</t>
+  </si>
+  <si>
+    <t>*.ipynb</t>
+  </si>
+  <si>
+    <t>notebooks used to generate html report for alternative configs (stored in html report/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longituidinal cognitive data for each score, disregarding whether there's a corresponding PET </t>
+  </si>
+  <si>
+    <t>SCORE NAME corresponds to variable name, see cognitive measure csv. Not sure where these are cleaned from, maybe add_cog,ipynb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,17 +823,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Monaco"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -404,29 +878,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,12 +1213,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D71F0-BDB1-6844-A986-25DC86F79C6F}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{710AB69F-F311-1A43-B035-B02D97377C68}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{0D1C90C9-7262-F947-8934-92EDFFB8B2FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912AD624-BB75-3743-A749-677D732C4CEA}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,329 +1684,313 @@
     <col min="6" max="8" width="36.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1075,232 +1998,459 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C19"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBAC06B-6FAC-6449-A3A6-89A6F8B93453}">
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>108</v>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
+    <sortCondition ref="A1:A43"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{F34191DB-607B-724D-BF1E-C639038F7C87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file_description.xlsx
+++ b/file_description.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E92482-01DC-1240-82C3-F462C1C0DD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A36C5-17EB-BA4B-842C-F4607ADC004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code_spec" sheetId="4" r:id="rId1"/>
     <sheet name="matlab_script" sheetId="6" r:id="rId2"/>
     <sheet name="Config_spec" sheetId="2" r:id="rId3"/>
     <sheet name="Data_spec" sheetId="5" r:id="rId4"/>
+    <sheet name="BrainNetViewer_colormap" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="302">
   <si>
     <t>Name</t>
   </si>
@@ -808,6 +809,138 @@
   </si>
   <si>
     <t>SCORE NAME corresponds to variable name, see cognitive measure csv. Not sure where these are cleaned from, maybe add_cog,ipynb</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>pt12_vi.mat</t>
+  </si>
+  <si>
+    <t>amy_d2blest_pos.mat</t>
+  </si>
+  <si>
+    <t>mri_d2blest_pt25.mat</t>
+  </si>
+  <si>
+    <t>*txt</t>
+  </si>
+  <si>
+    <t>colormap matrix to be imported into the custom colormap option in brainnet viewer's configuration menu</t>
+  </si>
+  <si>
+    <t>generate the double threshold time from baseline slope map from voxelstat output</t>
+  </si>
+  <si>
+    <t>individual.m</t>
+  </si>
+  <si>
+    <t>day2bl_double_p_combo.m</t>
+  </si>
+  <si>
+    <t>visualize SUVR images for all the Flortaucipir PET in this project</t>
+  </si>
+  <si>
+    <t>poorly.m</t>
+  </si>
+  <si>
+    <t>create and visualize the average Flortaucipir PET SUVR images of the group of participants with poor model fit in solutions with different number of subtypes</t>
+  </si>
+  <si>
+    <t>cmap_generator.m</t>
+  </si>
+  <si>
+    <t>matlab version of colormap generator for brainnetviewer</t>
+  </si>
+  <si>
+    <t>outdated (kinda)</t>
+  </si>
+  <si>
+    <t>vs_script</t>
+  </si>
+  <si>
+    <t>run voxelstat using matlab script instead of the GUI to save and visualize output more efficiently</t>
+  </si>
+  <si>
+    <t>run_vs_script</t>
+  </si>
+  <si>
+    <t>batch_vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function to run voxelstat with self-defined input output and parameters + visualization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch run (call run_vs_script) to set a list of LME modeling to run + </t>
+  </si>
+  <si>
+    <t>tmap_afni.mat</t>
+  </si>
+  <si>
+    <t>flexible_doublep_baselinecomp</t>
+  </si>
+  <si>
+    <t>baseline_subtype_ss_avg</t>
+  </si>
+  <si>
+    <t>generate and visualize subtype and subtype-stage group average Flortaucipir PET SUVR images</t>
+  </si>
+  <si>
+    <t>TPM_GM_Mask_10pc.nii</t>
+  </si>
+  <si>
+    <t>Grey matter mask derived from SPM</t>
+  </si>
+  <si>
+    <t>rs16Sub_harbard_bin01.nii</t>
+  </si>
+  <si>
+    <t>the balue is inverse</t>
+  </si>
+  <si>
+    <t>cet_rbgyrm1_pt5_3.mat</t>
+  </si>
+  <si>
+    <t>combined_darkred.mat</t>
+  </si>
+  <si>
+    <t>binary colormap for anova test in LME</t>
+  </si>
+  <si>
+    <t>pt5_3pt5_magma_shifted_stage.mat</t>
+  </si>
+  <si>
+    <t>doublep_thre3</t>
+  </si>
+  <si>
+    <t>baseline comparison with different covariate adjustment, modalities, and number of subtypes</t>
+  </si>
+  <si>
+    <t>onevr_double_p_combo.m</t>
+  </si>
+  <si>
+    <t>visualize comparison result (after running flexible doublep and get combined contrast nifti for adjusted and unadjusted) using double significance threshold</t>
+  </si>
+  <si>
+    <t>baseline subtype-versus-rest comparison t value map with double significance threshold</t>
+  </si>
+  <si>
+    <t>subtype and stage group average Flortaucipir PET SUVR images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope (year_to_baseline) map for T1-weighted MRI LME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope (year_to_baseline) map for Florbetaben PET LME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope (year_to_baseline) map for Flortaucipir PET LME </t>
+  </si>
+  <si>
+    <t>t-value maps (after they've been filtered out based on significance threshold)</t>
+  </si>
+  <si>
+    <t>rainbow colormap for average Flortaucipir SUVR maps (alternative: lm_inferno)</t>
   </si>
 </sst>
 </file>
@@ -882,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,7 +1041,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1642,13 +1774,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912AD624-BB75-3743-A749-677D732C4CEA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1659,6 +1795,105 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -2148,7 +2383,6 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2453,4 +2687,103 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D640457-302C-8442-BA2F-E9D6744A91DD}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>